--- a/Data for index.xlsx
+++ b/Data for index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adval\OneDrive\Desktop\TRIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A1BF3F-B7B1-492C-8ED6-77F6A06E4809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EF7EA-B199-46D3-912A-D194145DDE0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{88C4AC65-F8AA-419E-BDD9-873DBBEBA09C}"/>
+    <workbookView xWindow="19090" yWindow="-10870" windowWidth="38620" windowHeight="21220" tabRatio="452" xr2:uid="{88C4AC65-F8AA-419E-BDD9-873DBBEBA09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
